--- a/CustomerRelationManage/src/main/java/com/testData/CRMTestData.xlsx
+++ b/CustomerRelationManage/src/main/java/com/testData/CRMTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atul\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC5373A2-1256-4194-9418-0A760D50F038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B101A1E-5941-425F-9BB3-6E5D917521E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4EC82BED-A531-4045-A125-2B1D8BA68F60}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>username</t>
   </si>
@@ -42,16 +42,57 @@
   </si>
   <si>
     <t>will</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Billing country</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>James Bond</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>jamesbond007@test.com</t>
+  </si>
+  <si>
+    <t>Bond</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -74,16 +115,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -396,19 +442,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F826D47A-BB8F-4C78-93BA-D8F2A3790C80}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -424,7 +480,50 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1">
+        <v>7777777777</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H5" r:id="rId1" xr:uid="{563A0B37-E1D8-47CD-8989-9C7460887FC7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>